--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - HISTORY.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - HISTORY.xlsx
@@ -8,6 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="2dtqHhGbkGtzlWZCMnwz9Rb/so4Lp7Y5nLK2K2zLaPs="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -168,13 +173,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +479,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>37.0</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6">
@@ -494,8 +506,12 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>70.0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
